--- a/Stocks/BAJFINANCE.xlsx
+++ b/Stocks/BAJFINANCE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1271.05</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1706.6641484650127</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1652.8911512468387</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>73.892148550923494</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>13.900000000000091</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>35.100000000000136</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.39601139601139707</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1558.3898259358136</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>84.025817760432574</v>
       </c>
       <c r="Y67">
         <v>72.394790031427377</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1773.5</v>
+      </c>
+      <c r="D83">
+        <v>1837.4</v>
+      </c>
+      <c r="E83">
+        <v>1767</v>
+      </c>
+      <c r="F83">
+        <v>1831</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1811.8</v>
+      </c>
+      <c r="H83">
+        <v>1779.7466636273466</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1773.7559976542479</v>
+      </c>
+      <c r="K83">
+        <v>1713.36779615469</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>77.513674031857221</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>64</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>70.400000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.90909090909090795</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>1735.8341938882245</v>
+      </c>
+      <c r="W83">
+        <v>1682.858208686893</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>52.975985201331468</v>
+      </c>
+      <c r="Y83">
+        <v>54.348789760916738</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1835</v>
+      </c>
+      <c r="D84">
+        <v>1835</v>
+      </c>
+      <c r="E84">
+        <v>1762</v>
+      </c>
+      <c r="F84">
+        <v>1770</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1789</v>
+      </c>
+      <c r="H84">
+        <v>1784.3733318136733</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1787.3657759533039</v>
+      </c>
+      <c r="K84">
+        <v>1724.174952564759</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>55.464917486780365</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>73</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1741.0904717515746</v>
+      </c>
+      <c r="W84">
+        <v>1689.3131561915677</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>51.777315560006855</v>
+      </c>
+      <c r="Y84">
+        <v>53.834494920734763</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1798</v>
+      </c>
+      <c r="D85">
+        <v>1819.4</v>
+      </c>
+      <c r="E85">
+        <v>1777.05</v>
+      </c>
+      <c r="F85">
+        <v>1788</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1794.8166666666666</v>
+      </c>
+      <c r="H85">
+        <v>1789.59499924017</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1794.4844924081253</v>
+      </c>
+      <c r="K85">
+        <v>1735.9249631059236</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>59.693841409142614</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10.950000000000045</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>42.350000000000136</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.25855962219598605</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1748.3073222513324</v>
+      </c>
+      <c r="W85">
+        <v>1696.62329276997</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>51.684029481362359</v>
+      </c>
+      <c r="Y85">
+        <v>53.40440183286028</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1797.4</v>
+      </c>
+      <c r="D86">
+        <v>1805.7</v>
+      </c>
+      <c r="E86">
+        <v>1770</v>
+      </c>
+      <c r="F86">
+        <v>1790</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1788.5666666666666</v>
+      </c>
+      <c r="H86">
+        <v>1789.0808329534184</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1796.976827428542</v>
+      </c>
+      <c r="K86">
+        <v>1743.4971935268295</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>60.21849938083492</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>35.700000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.56022408963585357</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1754.7215803665119</v>
+      </c>
+      <c r="W86">
+        <v>1703.5400858981204</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>51.18149446839152</v>
+      </c>
+      <c r="Y86">
+        <v>52.959820359966528</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1790</v>
+      </c>
+      <c r="D87">
+        <v>1807</v>
+      </c>
+      <c r="E87">
+        <v>1790</v>
+      </c>
+      <c r="F87">
+        <v>1799.95</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1798.9833333333333</v>
+      </c>
+      <c r="H87">
+        <v>1794.032083143376</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1799.2041991110882</v>
+      </c>
+      <c r="K87">
+        <v>1753.8311505208674</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>63.197593236635704</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>9.9500000000000455</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.58529411764706152</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1761.6797987716639</v>
+      </c>
+      <c r="W87">
+        <v>1710.6815610167782</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>50.998237754885622</v>
+      </c>
+      <c r="Y87">
+        <v>52.567503838950344</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1797.95</v>
+      </c>
+      <c r="D88">
+        <v>1820</v>
+      </c>
+      <c r="E88">
+        <v>1775.55</v>
+      </c>
+      <c r="F88">
+        <v>1801</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1798.8500000000001</v>
+      </c>
+      <c r="H88">
+        <v>1796.4410415716879</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1803.8254881975131</v>
+      </c>
+      <c r="K88">
+        <v>1758.6575615162301</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>63.557579944765976</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>25.450000000000045</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>44.450000000000045</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.57255343082114785</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1767.7290604991001</v>
+      </c>
+      <c r="W88">
+        <v>1717.3718157562762</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>50.357244742823923</v>
+      </c>
+      <c r="Y88">
+        <v>52.12545201972506</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1809.85</v>
+      </c>
+      <c r="D89">
+        <v>1815.3</v>
+      </c>
+      <c r="E89">
+        <v>1784.55</v>
+      </c>
+      <c r="F89">
+        <v>1793</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1797.6166666666668</v>
+      </c>
+      <c r="H89">
+        <v>1797.0288541191774</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1806.3753797091767</v>
+      </c>
+      <c r="K89">
+        <v>1764.4114367348457</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>58.141247744935256</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>8.4500000000000455</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>30.75</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.27479674796748116</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1771.6168973453923</v>
+      </c>
+      <c r="W89">
+        <v>1722.9739034780334</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>48.642993867358882</v>
+      </c>
+      <c r="Y89">
+        <v>51.428960389251827</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1782</v>
+      </c>
+      <c r="D90">
+        <v>1883</v>
+      </c>
+      <c r="E90">
+        <v>1777.7</v>
+      </c>
+      <c r="F90">
+        <v>1859.7</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1840.1333333333332</v>
+      </c>
+      <c r="H90">
+        <v>1818.5810937262554</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1823.4030731071375</v>
+      </c>
+      <c r="K90">
+        <v>1767.3644507937688</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>77.830751538301811</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>82</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>105.29999999999995</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.77872744539411243</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1785.1681439076397</v>
+      </c>
+      <c r="W90">
+        <v>1733.1017624796607</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>52.066381427978968</v>
+      </c>
+      <c r="Y90">
+        <v>51.556444596997252</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1880</v>
+      </c>
+      <c r="D91">
+        <v>1985.9</v>
+      </c>
+      <c r="E91">
+        <v>1871.15</v>
+      </c>
+      <c r="F91">
+        <v>1963</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1940.0166666666667</v>
+      </c>
+      <c r="H91">
+        <v>1879.2988801964611</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1859.5135013055515</v>
+      </c>
+      <c r="K91">
+        <v>1790.4279061729312</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>88.396776738619181</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>91.849999999999909</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>114.75</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.80043572984749378</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>1812.5268909987719</v>
+      </c>
+      <c r="W91">
+        <v>1750.1312615552413</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>62.395629443530652</v>
+      </c>
+      <c r="Y91">
+        <v>53.724281566303929</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>1884.25</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>1915</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>1928.5500000000002</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>1942.0500000000002</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1970</v>
+      </c>
+      <c r="D92">
+        <v>1974.95</v>
+      </c>
+      <c r="E92">
+        <v>1881</v>
+      </c>
+      <c r="F92">
+        <v>1888</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1914.6499999999999</v>
+      </c>
+      <c r="H92">
+        <v>1896.9744400982304</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1885.1660565709844</v>
+      </c>
+      <c r="K92">
+        <v>1810.555038134502</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>61.7060940149454</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>93.950000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>7.4507716870675852E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1824.1381385374225</v>
+      </c>
+      <c r="W92">
+        <v>1760.3437606992975</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>63.794377838125001</v>
+      </c>
+      <c r="Y92">
+        <v>55.738300820668144</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1900</v>
+      </c>
+      <c r="D93">
+        <v>1935.45</v>
+      </c>
+      <c r="E93">
+        <v>1898.05</v>
+      </c>
+      <c r="F93">
+        <v>1921.3</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1918.2666666666667</v>
+      </c>
+      <c r="H93">
+        <v>1907.6205533824486</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1896.3402662218768</v>
+      </c>
+      <c r="K93">
+        <v>1829.9983629935016</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>67.202263417099033</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>23.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>37.400000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.62165775401069368</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1839.0861172239729</v>
+      </c>
+      <c r="W93">
+        <v>1772.2664450919422</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>66.819672132030746</v>
+      </c>
+      <c r="Y93">
+        <v>57.954575082940664</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1935</v>
+      </c>
+      <c r="D94">
+        <v>1935</v>
+      </c>
+      <c r="E94">
+        <v>1886.6</v>
+      </c>
+      <c r="F94">
+        <v>1894</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1905.2</v>
+      </c>
+      <c r="H94">
+        <v>1906.4102766912242</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1904.9313181725709</v>
+      </c>
+      <c r="K94">
+        <v>1842.5765045505011</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>58.585416256234865</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>7.4000000000000909</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>48.400000000000091</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.15289256198347267</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1847.5344068818233</v>
+      </c>
+      <c r="W94">
+        <v>1781.283745455502</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>66.250661426321358</v>
+      </c>
+      <c r="Y94">
+        <v>59.613792351616802</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1895</v>
+      </c>
+      <c r="D95">
+        <v>1924.7</v>
+      </c>
+      <c r="E95">
+        <v>1895</v>
+      </c>
+      <c r="F95">
+        <v>1910.6</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1910.0999999999997</v>
+      </c>
+      <c r="H95">
+        <v>1908.2551383456121</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1909.3243585786663</v>
+      </c>
+      <c r="K95">
+        <v>1854.2261702059452</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>62.263190929521691</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>15.599999999999909</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>29.700000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.52525252525252142</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1857.2368058230813</v>
+      </c>
+      <c r="W95">
+        <v>1790.862727273613</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>66.374078549468322</v>
+      </c>
+      <c r="Y95">
+        <v>60.965849591187109</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1913</v>
+      </c>
+      <c r="D96">
+        <v>1935.5</v>
+      </c>
+      <c r="E96">
+        <v>1901</v>
+      </c>
+      <c r="F96">
+        <v>1913.9</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1916.8</v>
+      </c>
+      <c r="H96">
+        <v>1912.5275691728061</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1915.1411677834071</v>
+      </c>
+      <c r="K96">
+        <v>1864.620354604624</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>63.077957863501325</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>12.900000000000091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>34.5</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.37391304347826348</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1865.9542203118381</v>
+      </c>
+      <c r="W96">
+        <v>1799.9765993274195</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>65.977620984418536</v>
+      </c>
+      <c r="Y96">
+        <v>61.968203869833395</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1895.6</v>
+      </c>
+      <c r="D97">
+        <v>1912.1</v>
+      </c>
+      <c r="E97">
+        <v>1881.4</v>
+      </c>
+      <c r="F97">
+        <v>1903.55</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1899.0166666666667</v>
+      </c>
+      <c r="H97">
+        <v>1905.7721179197365</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1914.4653527204277</v>
+      </c>
+      <c r="K97">
+        <v>1868.3491646924854</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>58.155359649444364</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>22.149999999999864</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>30.699999999999818</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.72149837133550476</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1871.7381864177091</v>
+      </c>
+      <c r="W97">
+        <v>1807.648703080944</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>64.08948333676517</v>
+      </c>
+      <c r="Y97">
+        <v>62.392459763219748</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1916</v>
+      </c>
+      <c r="D98">
+        <v>1929.25</v>
+      </c>
+      <c r="E98">
+        <v>1906.6</v>
+      </c>
+      <c r="F98">
+        <v>1912.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1916.1166666666668</v>
+      </c>
+      <c r="H98">
+        <v>1910.9443922932016</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1917.7508298936659</v>
+      </c>
+      <c r="K98">
+        <v>1876.8493503163775</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>61.41056149495536</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>5.9000000000000909</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>22.650000000000091</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.26048565121413103</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1878.0092346611384</v>
+      </c>
+      <c r="W98">
+        <v>1815.4154658156888</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>62.593768845449631</v>
+      </c>
+      <c r="Y98">
+        <v>62.432721579665724</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1924.1</v>
+      </c>
+      <c r="D99">
+        <v>1928.7</v>
+      </c>
+      <c r="E99">
+        <v>1904.05</v>
+      </c>
+      <c r="F99">
+        <v>1912</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1914.9166666666667</v>
+      </c>
+      <c r="H99">
+        <v>1912.9305294799342</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1920.1839788061845</v>
+      </c>
+      <c r="K99">
+        <v>1882.8939391349602</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>61.078754727404124</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>7.9500000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>24.650000000000091</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.32251521298174507</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1883.2385831748095</v>
+      </c>
+      <c r="W99">
+        <v>1822.5698757552673</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>60.668707419542216</v>
+      </c>
+      <c r="Y99">
+        <v>62.079918747641024</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1918.8</v>
+      </c>
+      <c r="D100">
+        <v>1918.85</v>
+      </c>
+      <c r="E100">
+        <v>1900</v>
+      </c>
+      <c r="F100">
+        <v>1904.5</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1907.7833333333335</v>
+      </c>
+      <c r="H100">
+        <v>1910.356931406634</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1919.8875390714768</v>
+      </c>
+      <c r="K100">
+        <v>1886.6952859938579</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>55.460196952879251</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>18.849999999999909</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.23872679045092954</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1886.5095703786849</v>
+      </c>
+      <c r="W100">
+        <v>1828.6387738474698</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>57.870796531215092</v>
+      </c>
+      <c r="Y100">
+        <v>61.23809430435584</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1908</v>
+      </c>
+      <c r="D101">
+        <v>1926</v>
+      </c>
+      <c r="E101">
+        <v>1871.55</v>
+      </c>
+      <c r="F101">
+        <v>1916.6</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1904.7166666666665</v>
+      </c>
+      <c r="H101">
+        <v>1907.5367990366503</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1921.2458637222596</v>
+      </c>
+      <c r="K101">
+        <v>1883.3296668841117</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>62.429857670048541</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>45.049999999999955</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>54.450000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.82736455463728042</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1891.1388672435025</v>
+      </c>
+      <c r="W101">
+        <v>1835.1544202291386</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>55.984447014363923</v>
+      </c>
+      <c r="Y101">
+        <v>60.187364846357454</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1910</v>
+      </c>
+      <c r="D102">
+        <v>1910</v>
+      </c>
+      <c r="E102">
+        <v>1847</v>
+      </c>
+      <c r="F102">
+        <v>1858</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1871.6666666666667</v>
+      </c>
+      <c r="H102">
+        <v>1889.6017328516587</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1918.7467828950907</v>
+      </c>
+      <c r="K102">
+        <v>1875.2564075765313</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>32.059771423561557</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>63</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.17460317460317459</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1886.0405799752714</v>
+      </c>
+      <c r="W102">
+        <v>1836.8466853973505</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>49.193894577920901</v>
+      </c>
+      <c r="Y102">
+        <v>57.988670792670142</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1859.95</v>
+      </c>
+      <c r="D103">
+        <v>1859.95</v>
+      </c>
+      <c r="E103">
+        <v>1759</v>
+      </c>
+      <c r="F103">
+        <v>1799.7</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1806.2166666666665</v>
+      </c>
+      <c r="H103">
+        <v>1847.9091997591627</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1905.6808311406262</v>
+      </c>
+      <c r="K103">
+        <v>1849.421650337302</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>19.975295082553078</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>40.700000000000045</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>100.95000000000005</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.40316988608221921</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1872.7574138252296</v>
+      </c>
+      <c r="W103">
+        <v>1834.0950790716208</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>38.662334753608775</v>
+      </c>
+      <c r="Y103">
+        <v>54.123403584857869</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1796</v>
+      </c>
+      <c r="D104">
+        <v>1862.8</v>
+      </c>
+      <c r="E104">
+        <v>1780.95</v>
+      </c>
+      <c r="F104">
+        <v>1839</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1827.5833333333333</v>
+      </c>
+      <c r="H104">
+        <v>1837.7462665462481</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>1896.1517575538203</v>
+      </c>
+      <c r="K104">
+        <v>1834.2057280401239</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>39.265501420153385</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>58.049999999999955</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>81.849999999999909</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.7092241905925476</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1867.5639655444249</v>
+      </c>
+      <c r="W104">
+        <v>1834.458406547797</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>33.105558996627906</v>
+      </c>
+      <c r="Y104">
+        <v>49.919834667211873</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1859</v>
+      </c>
+      <c r="D105">
+        <v>1859</v>
+      </c>
+      <c r="E105">
+        <v>1795.25</v>
+      </c>
+      <c r="F105">
+        <v>1808.2</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1820.8166666666666</v>
+      </c>
+      <c r="H105">
+        <v>1829.2814666064573</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1887.8958114307491</v>
+      </c>
+      <c r="K105">
+        <v>1825.5488995867629</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>31.764447650052752</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>12.950000000000045</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>63.75</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.20313725490196149</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1858.4310477683596</v>
+      </c>
+      <c r="W105">
+        <v>1832.5133393961084</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>25.917708372251127</v>
+      </c>
+      <c r="Y105">
+        <v>45.119409408219724</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1817</v>
+      </c>
+      <c r="D106">
+        <v>1855</v>
+      </c>
+      <c r="E106">
+        <v>1791</v>
+      </c>
+      <c r="F106">
+        <v>1840.2</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1828.7333333333333</v>
+      </c>
+      <c r="H106">
+        <v>1829.0073999698952</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1880.5856311128048</v>
+      </c>
+      <c r="K106">
+        <v>1817.87136634526</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>45.328298260163457</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>49.200000000000045</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>64</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.76875000000000071</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1855.626271188612</v>
+      </c>
+      <c r="W106">
+        <v>1833.0827216630635</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>22.543549525548542</v>
+      </c>
+      <c r="Y106">
+        <v>40.60423743168549</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1857.95</v>
+      </c>
+      <c r="D107">
+        <v>1875</v>
+      </c>
+      <c r="E107">
+        <v>1830.35</v>
+      </c>
+      <c r="F107">
+        <v>1836.1</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1847.1499999999999</v>
+      </c>
+      <c r="H107">
+        <v>1838.0786999849474</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1879.3443797544037</v>
+      </c>
+      <c r="K107">
+        <v>1820.6443960463132</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>43.929757951062207</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>5.75</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>44.650000000000091</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.12877939529675225</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1852.6222294672871</v>
+      </c>
+      <c r="W107">
+        <v>1833.3062237620959</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>19.316005705191174</v>
+      </c>
+      <c r="Y107">
+        <v>36.346591086386624</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
